--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-990523.2171024389</v>
+        <v>-992447.8206692965</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3180051.965155033</v>
+        <v>3180051.965155035</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,58 +665,58 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
+        <v>62.24894065618087</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>205.8118405263978</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.3343897888113</v>
+      </c>
+      <c r="V2" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>243.2386572690347</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>53.43477464750529</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268741</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>94.95640458674079</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.69723130130868</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>341.873310169033</v>
       </c>
       <c r="C5" t="n">
-        <v>341.8733101690339</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>341.873310169033</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>311.2101816334095</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.93452779272217</v>
+        <v>341.873310169033</v>
       </c>
       <c r="H5" t="n">
-        <v>335.7038742961062</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>196.2804842470833</v>
+        <v>167.5064018895412</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>126.7395639656316</v>
+        <v>126.7395639656317</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.3327465485026</v>
       </c>
       <c r="I6" t="n">
-        <v>82.61362792373487</v>
+        <v>82.61362792373492</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>87.92595927923674</v>
       </c>
       <c r="S6" t="n">
-        <v>168.0238047511339</v>
+        <v>168.023804751134</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.3706418758996</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9284209250621</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>148.3217469297128</v>
+        <v>1.169136278264095</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>76.86652087361135</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>160.7586947903199</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.080181780086004</v>
+        <v>3.080181780086161</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.35464718192037</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>273.3472329233935</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>326.451518170071</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>67.00090002953034</v>
       </c>
       <c r="U10" t="n">
-        <v>261.9025067912345</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>284.3944607986343</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>276.4772519060443</v>
       </c>
       <c r="V16" t="n">
-        <v>131.235198904065</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>237.058239909696</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>185.4635353154928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>118.4898845065117</v>
       </c>
       <c r="U22" t="n">
-        <v>35.40048665206239</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>59.01513052779048</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>127.0199624800788</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.5127428246837</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.5632668609405</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>101.7803822451442</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>203.1464755155368</v>
       </c>
       <c r="U25" t="n">
-        <v>267.8362668557251</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809757</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X25" t="n">
-        <v>207.3085698461849</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092425</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C28" t="n">
-        <v>44.25903449440738</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0328771037169</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.86101695904098</v>
       </c>
       <c r="S28" t="n">
-        <v>179.5197244407509</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1464755155369</v>
+        <v>203.1464755155368</v>
       </c>
       <c r="U28" t="n">
-        <v>267.8362668557251</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809757</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X28" t="n">
         <v>207.3085698461848</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.430894639085</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557755</v>
+        <v>10.86101695904098</v>
       </c>
       <c r="D31" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037169</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205253</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.5127428246838</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141968</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094049</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>174.0473412402083</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.1464755155368</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C35" t="n">
         <v>297.1410016413669</v>
@@ -3272,16 +3272,16 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E35" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F35" t="n">
-        <v>338.7441556120698</v>
+        <v>338.7441556120708</v>
       </c>
       <c r="G35" t="n">
         <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I35" t="n">
         <v>13.64724492310009</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555815</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T35" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U35" t="n">
         <v>182.9467051201603</v>
@@ -3326,13 +3326,13 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X35" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.1060485264129</v>
+        <v>318.1060485264117</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3554,7 +3554,7 @@
         <v>64.81847467555818</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U38" t="n">
         <v>182.9467051201603</v>
@@ -3563,7 +3563,7 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C41" t="n">
         <v>297.1410016413669</v>
@@ -3746,7 +3746,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E41" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F41" t="n">
         <v>338.7441556120708</v>
@@ -3755,10 +3755,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492309883</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T41" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
         <v>182.9467051201603</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404935</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W41" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X41" t="n">
         <v>301.5992105488284</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555693</v>
       </c>
       <c r="T44" t="n">
-        <v>140.3508982088605</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V44" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W44" t="n">
         <v>281.1090785877724</v>
@@ -4043,7 +4043,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463134</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.626054809422</v>
+        <v>363.9162123674373</v>
       </c>
       <c r="C2" t="n">
-        <v>1104.626054809422</v>
+        <v>363.9162123674373</v>
       </c>
       <c r="D2" t="n">
-        <v>1104.626054809422</v>
+        <v>363.9162123674373</v>
       </c>
       <c r="E2" t="n">
-        <v>825.6800813726991</v>
+        <v>363.9162123674373</v>
       </c>
       <c r="F2" t="n">
-        <v>546.7341079359765</v>
+        <v>84.97023893071457</v>
       </c>
       <c r="G2" t="n">
-        <v>267.7881344992538</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
         <v>22.09252109618843</v>
@@ -4331,19 +4331,19 @@
         <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438682</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4355,25 +4355,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>642.8621858041599</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>363.9162123674373</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>363.9162123674373</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>363.9162123674373</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>363.9162123674373</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>677.1130895199817</v>
+        <v>487.1343558670442</v>
       </c>
       <c r="C3" t="n">
-        <v>677.1130895199817</v>
+        <v>312.6813265859172</v>
       </c>
       <c r="D3" t="n">
-        <v>528.1786798587304</v>
+        <v>163.7469169246659</v>
       </c>
       <c r="E3" t="n">
-        <v>368.941224853275</v>
+        <v>163.7469169246659</v>
       </c>
       <c r="F3" t="n">
-        <v>222.40666688016</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
         <v>109.772397078701</v>
@@ -4407,52 +4407,52 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>28.39914141318534</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>288.9361218459457</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112776</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945614</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940351</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940351</v>
+        <v>902.746154837531</v>
       </c>
       <c r="V3" t="n">
-        <v>773.0286497086088</v>
+        <v>902.746154837531</v>
       </c>
       <c r="W3" t="n">
-        <v>773.0286497086088</v>
+        <v>902.746154837531</v>
       </c>
       <c r="X3" t="n">
-        <v>773.0286497086088</v>
+        <v>694.8946546319982</v>
       </c>
       <c r="Y3" t="n">
-        <v>677.1130895199817</v>
+        <v>487.1343558670442</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>170.0056146785815</v>
       </c>
       <c r="E4" t="n">
         <v>22.09252109618843</v>
@@ -4531,7 +4531,7 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.47347909469</v>
+        <v>894.1469031663697</v>
       </c>
       <c r="C5" t="n">
-        <v>894.1469031663725</v>
+        <v>894.1469031663697</v>
       </c>
       <c r="D5" t="n">
-        <v>894.1469031663725</v>
+        <v>548.8203272380536</v>
       </c>
       <c r="E5" t="n">
-        <v>894.1469031663725</v>
+        <v>548.8203272380536</v>
       </c>
       <c r="F5" t="n">
-        <v>579.7931843447467</v>
+        <v>541.8748264888501</v>
       </c>
       <c r="G5" t="n">
-        <v>564.7078027359364</v>
+        <v>196.5482505605339</v>
       </c>
       <c r="H5" t="n">
-        <v>225.612980214617</v>
+        <v>196.5482505605339</v>
       </c>
       <c r="I5" t="n">
-        <v>27.34986481352271</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="J5" t="n">
-        <v>46.45889488082025</v>
+        <v>46.4588948808198</v>
       </c>
       <c r="K5" t="n">
-        <v>195.8431816943463</v>
+        <v>195.8431816943455</v>
       </c>
       <c r="L5" t="n">
-        <v>433.4442264909788</v>
+        <v>433.4442264909777</v>
       </c>
       <c r="M5" t="n">
-        <v>714.4277151203074</v>
+        <v>714.4277151203057</v>
       </c>
       <c r="N5" t="n">
-        <v>985.3258128090388</v>
+        <v>985.3258128090365</v>
       </c>
       <c r="O5" t="n">
-        <v>1195.939566860208</v>
+        <v>1195.939566860205</v>
       </c>
       <c r="P5" t="n">
-        <v>1338.019150313933</v>
+        <v>1338.01915031393</v>
       </c>
       <c r="Q5" t="n">
-        <v>1367.493240676136</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="R5" t="n">
-        <v>1239.47347909469</v>
+        <v>1239.473479094686</v>
       </c>
       <c r="S5" t="n">
-        <v>1239.47347909469</v>
+        <v>1239.473479094686</v>
       </c>
       <c r="T5" t="n">
-        <v>1239.47347909469</v>
+        <v>1239.473479094686</v>
       </c>
       <c r="U5" t="n">
-        <v>1239.47347909469</v>
+        <v>1239.473479094686</v>
       </c>
       <c r="V5" t="n">
-        <v>1239.47347909469</v>
+        <v>1239.473479094686</v>
       </c>
       <c r="W5" t="n">
-        <v>1239.47347909469</v>
+        <v>1239.473479094686</v>
       </c>
       <c r="X5" t="n">
-        <v>1239.47347909469</v>
+        <v>1239.473479094686</v>
       </c>
       <c r="Y5" t="n">
-        <v>1239.47347909469</v>
+        <v>1239.473479094686</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>565.5043964672182</v>
+        <v>530.4170572299643</v>
       </c>
       <c r="C6" t="n">
-        <v>565.5043964672182</v>
+        <v>530.4170572299643</v>
       </c>
       <c r="D6" t="n">
-        <v>416.5699868059668</v>
+        <v>381.482647568713</v>
       </c>
       <c r="E6" t="n">
-        <v>257.3325318005113</v>
+        <v>222.2451925632575</v>
       </c>
       <c r="F6" t="n">
-        <v>110.7979738273963</v>
+        <v>222.2451925632575</v>
       </c>
       <c r="G6" t="n">
-        <v>110.7979738273963</v>
+        <v>222.2451925632575</v>
       </c>
       <c r="H6" t="n">
         <v>110.7979738273963</v>
       </c>
       <c r="I6" t="n">
-        <v>27.34986481352271</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="J6" t="n">
-        <v>27.34986481352271</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="K6" t="n">
-        <v>184.2020227692172</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="L6" t="n">
-        <v>301.1346437161566</v>
+        <v>81.24718089822807</v>
       </c>
       <c r="M6" t="n">
-        <v>639.5892207835002</v>
+        <v>419.7017579655707</v>
       </c>
       <c r="N6" t="n">
-        <v>978.0437978508437</v>
+        <v>758.1563350329134</v>
       </c>
       <c r="O6" t="n">
-        <v>1273.202064371589</v>
+        <v>1053.314601553659</v>
       </c>
       <c r="P6" t="n">
-        <v>1273.202064371589</v>
+        <v>1273.202064371586</v>
       </c>
       <c r="Q6" t="n">
-        <v>1367.493240676136</v>
+        <v>1367.493240676132</v>
       </c>
       <c r="R6" t="n">
-        <v>1367.493240676136</v>
+        <v>1278.679140394075</v>
       </c>
       <c r="S6" t="n">
-        <v>1197.772225776</v>
+        <v>1108.958125493939</v>
       </c>
       <c r="T6" t="n">
-        <v>1197.772225776</v>
+        <v>907.5736387506065</v>
       </c>
       <c r="U6" t="n">
-        <v>969.561699589069</v>
+        <v>907.5736387506065</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7417531954197</v>
+        <v>906.3926930149862</v>
       </c>
       <c r="W6" t="n">
-        <v>565.5043964672182</v>
+        <v>906.3926930149862</v>
       </c>
       <c r="X6" t="n">
-        <v>565.5043964672182</v>
+        <v>906.3926930149862</v>
       </c>
       <c r="Y6" t="n">
-        <v>565.5043964672182</v>
+        <v>698.6323942500323</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>192.8436795311044</v>
+        <v>199.3973424687893</v>
       </c>
       <c r="C7" t="n">
-        <v>192.8436795311044</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="D7" t="n">
-        <v>192.8436795311044</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="E7" t="n">
-        <v>192.8436795311044</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="F7" t="n">
-        <v>192.8436795311044</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="G7" t="n">
-        <v>192.8436795311044</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="H7" t="n">
-        <v>30.46115954088231</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="I7" t="n">
-        <v>30.46115954088231</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="J7" t="n">
-        <v>30.46115954088231</v>
+        <v>30.4611595408824</v>
       </c>
       <c r="K7" t="n">
-        <v>27.34986481352271</v>
+        <v>27.34986481352264</v>
       </c>
       <c r="L7" t="n">
-        <v>78.97414292953553</v>
+        <v>78.97414292953528</v>
       </c>
       <c r="M7" t="n">
-        <v>143.793829039479</v>
+        <v>143.7938290394786</v>
       </c>
       <c r="N7" t="n">
-        <v>212.5068643147033</v>
+        <v>212.5068643147026</v>
       </c>
       <c r="O7" t="n">
-        <v>259.9581784039162</v>
+        <v>259.9581784039154</v>
       </c>
       <c r="P7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="R7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="S7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="T7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="V7" t="n">
-        <v>277.0402928461755</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="W7" t="n">
-        <v>192.8436795311044</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="X7" t="n">
-        <v>192.8436795311044</v>
+        <v>277.0402928461745</v>
       </c>
       <c r="Y7" t="n">
-        <v>192.8436795311044</v>
+        <v>277.0402928461745</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1538.731846067564</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="C8" t="n">
-        <v>1538.731846067564</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>1180.466147460813</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>794.677894862569</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>383.6919900729615</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>2302.336936304455</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>1928.871178043375</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y8" t="n">
-        <v>1538.731846067564</v>
+        <v>1871.983983358263</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="U10" t="n">
-        <v>463.5809975486215</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="V10" t="n">
-        <v>463.5809975486215</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="W10" t="n">
-        <v>463.5809975486215</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="11">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>581.2185435662825</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,22 +5200,22 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.64913843807</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X13" t="n">
-        <v>983.6595875400524</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.8670083965222</v>
+        <v>213.9110074201013</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5270,43 +5270,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.4221461351941</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351941</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5434,52 +5434,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1019.726309053208</v>
       </c>
       <c r="V16" t="n">
-        <v>1255.280360145925</v>
+        <v>765.0418208473207</v>
       </c>
       <c r="W16" t="n">
-        <v>965.863190108964</v>
+        <v>475.62465081036</v>
       </c>
       <c r="X16" t="n">
-        <v>965.863190108964</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.0706109654338</v>
+        <v>247.6350999123425</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5513,13 +5513,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>498.9056400965599</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.0201325405894</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405894</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405894</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
         <v>244.1070389581962</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.78763177146</v>
+        <v>1059.543492887903</v>
       </c>
       <c r="W19" t="n">
-        <v>1022.450727412377</v>
+        <v>770.1263228509424</v>
       </c>
       <c r="X19" t="n">
-        <v>794.4611765143592</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y19" t="n">
-        <v>573.668597370829</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5835,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829217</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1263.238193148139</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1263.238193148139</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>973.8210231111788</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>745.8314722131614</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.8314722131614</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5981,37 +5981,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>695.8768852550277</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>695.8768852550277</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>636.2656422976642</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>506.9395038090614</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>378.6365114049413</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>229.0481448185522</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2193375436547</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L25" t="n">
-        <v>562.1484572422077</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968141</v>
+        <v>851.9322746968145</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O25" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P25" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q25" t="n">
-        <v>1644.652868057292</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R25" t="n">
-        <v>1552.164719712908</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="S25" t="n">
-        <v>1449.356252798621</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="T25" t="n">
-        <v>1449.356252798621</v>
+        <v>1439.454407940589</v>
       </c>
       <c r="U25" t="n">
-        <v>1178.814569105969</v>
+        <v>1168.912724247938</v>
       </c>
       <c r="V25" t="n">
-        <v>942.7170359938727</v>
+        <v>1168.912724247938</v>
       </c>
       <c r="W25" t="n">
-        <v>671.8868210507023</v>
+        <v>898.0825093047674</v>
       </c>
       <c r="X25" t="n">
-        <v>462.4842252464753</v>
+        <v>898.0825093047674</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.2786011967354</v>
+        <v>695.8768852550277</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>271.2493253977851</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>226.5432299488888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>226.5432299488888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436548</v>
+        <v>296.219337543655</v>
       </c>
       <c r="L28" t="n">
-        <v>562.1484572422077</v>
+        <v>562.1484572422081</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968143</v>
+        <v>851.9322746968147</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P28" t="n">
         <v>1587.602350397713</v>
       </c>
       <c r="Q28" t="n">
-        <v>1644.652868057292</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R28" t="n">
-        <v>1644.652868057292</v>
+        <v>1633.682143856242</v>
       </c>
       <c r="S28" t="n">
-        <v>1463.319813066635</v>
+        <v>1452.349088865584</v>
       </c>
       <c r="T28" t="n">
-        <v>1258.121352949931</v>
+        <v>1247.150628748881</v>
       </c>
       <c r="U28" t="n">
-        <v>987.5796692572794</v>
+        <v>976.6089450562291</v>
       </c>
       <c r="V28" t="n">
-        <v>751.4821361451827</v>
+        <v>740.5114119441325</v>
       </c>
       <c r="W28" t="n">
-        <v>480.6519212020123</v>
+        <v>469.6811970009624</v>
       </c>
       <c r="X28" t="n">
-        <v>271.2493253977851</v>
+        <v>260.2786011967353</v>
       </c>
       <c r="Y28" t="n">
-        <v>271.2493253977851</v>
+        <v>260.2786011967353</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,40 +6473,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1011.092190734589</v>
+        <v>108.1878156613373</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7429629004724</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>729.2132785819269</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>599.887140093324</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>471.5841476892039</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>321.9957811028146</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>190.1647277445482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422082</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968148</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O31" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q31" t="n">
-        <v>1644.652868057293</v>
+        <v>1644.652868057294</v>
       </c>
       <c r="R31" t="n">
-        <v>1552.164719712908</v>
+        <v>1644.652868057294</v>
       </c>
       <c r="S31" t="n">
-        <v>1376.359324520779</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T31" t="n">
-        <v>1376.359324520779</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U31" t="n">
-        <v>1376.359324520779</v>
+        <v>987.5796692572807</v>
       </c>
       <c r="V31" t="n">
-        <v>1376.359324520779</v>
+        <v>751.4821361451841</v>
       </c>
       <c r="W31" t="n">
-        <v>1376.359324520779</v>
+        <v>480.6519212020138</v>
       </c>
       <c r="X31" t="n">
-        <v>1376.359324520779</v>
+        <v>271.2493253977867</v>
       </c>
       <c r="Y31" t="n">
-        <v>1174.153700471039</v>
+        <v>271.2493253977867</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6783,22 +6783,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C35" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.925338995058</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E35" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.7913636872897</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G35" t="n">
-        <v>329.4856801922889</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H35" t="n">
         <v>89.93481253402931</v>
@@ -6935,10 +6935,10 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J35" t="n">
-        <v>344.8139583742028</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>868.2168169432324</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L35" t="n">
         <v>1415.511460712183</v>
@@ -6980,7 +6980,7 @@
         <v>2564.61236242199</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>242.4709188044723</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K36" t="n">
-        <v>653.361187648985</v>
+        <v>391.5406030065323</v>
       </c>
       <c r="L36" t="n">
-        <v>900.1263155554491</v>
+        <v>1005.437672763421</v>
       </c>
       <c r="M36" t="n">
-        <v>1207.446448835411</v>
+        <v>1312.757806043383</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.309076499443</v>
+        <v>1642.620433707415</v>
       </c>
       <c r="O36" t="n">
-        <v>1816.84914171814</v>
+        <v>1922.160498926112</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.766701154948</v>
+        <v>2442.461120661859</v>
       </c>
       <c r="Q36" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.392864302657</v>
+        <v>638.3928643026568</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147909</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424962</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001442</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422749</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021366</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901214</v>
+        <v>118.864216990121</v>
       </c>
       <c r="I37" t="n">
         <v>76.14971665211002</v>
@@ -7099,16 +7099,16 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567933</v>
+        <v>688.781572056793</v>
       </c>
       <c r="M37" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N37" t="n">
         <v>1365.793566308212</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P37" t="n">
         <v>1911.16945137598</v>
@@ -7117,7 +7117,7 @@
         <v>2017.45346557648</v>
       </c>
       <c r="R37" t="n">
-        <v>1975.198453178347</v>
+        <v>1975.198453178346</v>
       </c>
       <c r="S37" t="n">
         <v>1844.09853413394</v>
@@ -7135,10 +7135,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963445</v>
+        <v>903.1937261963444</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928556</v>
+        <v>751.2212380928554</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.513372462138</v>
       </c>
       <c r="C38" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D38" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.925338995058</v>
       </c>
       <c r="E38" t="n">
-        <v>1018.957177436856</v>
+        <v>1018.957177436855</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872896</v>
+        <v>676.7913636872887</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4856801922888</v>
+        <v>329.4856801922883</v>
       </c>
       <c r="H38" t="n">
         <v>89.93481253402931</v>
@@ -7172,25 +7172,25 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
-        <v>344.8139583742028</v>
+        <v>333.4857455909873</v>
       </c>
       <c r="K38" t="n">
-        <v>547.3128584977793</v>
+        <v>856.8886041600171</v>
       </c>
       <c r="L38" t="n">
-        <v>835.4324121366315</v>
+        <v>1558.492760203815</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.708765856522</v>
+        <v>2355.769113923706</v>
       </c>
       <c r="N38" t="n">
-        <v>2428.253886960553</v>
+        <v>2718.340779859872</v>
       </c>
       <c r="O38" t="n">
-        <v>2895.591279040995</v>
+        <v>3424.363840884068</v>
       </c>
       <c r="P38" t="n">
-        <v>3460.491244296798</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q38" t="n">
         <v>3807.4858326055</v>
@@ -7205,19 +7205,19 @@
         <v>3600.244041813157</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176631</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X38" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>242.4709188044723</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K39" t="n">
         <v>653.361187648985</v>
       </c>
       <c r="L39" t="n">
-        <v>900.1263155554491</v>
+        <v>1185.651406307347</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.446448835411</v>
+        <v>1492.971539587309</v>
       </c>
       <c r="N39" t="n">
-        <v>1537.309076499443</v>
+        <v>1822.834167251342</v>
       </c>
       <c r="O39" t="n">
-        <v>1816.84914171814</v>
+        <v>2102.374232470039</v>
       </c>
       <c r="P39" t="n">
         <v>2307.396713252248</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026572</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147914</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424967</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001447</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422753</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021372</v>
+        <v>200.462134402137</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443639</v>
+        <v>155.9829803443645</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173197</v>
+        <v>373.6189558173202</v>
       </c>
       <c r="L40" t="n">
-        <v>688.781572056793</v>
+        <v>688.7815720567938</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N40" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P40" t="n">
-        <v>1911.16945137598</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q40" t="n">
         <v>2017.45346557648</v>
@@ -7372,10 +7372,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.193726196345</v>
+        <v>903.1937261963449</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928559</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462138</v>
       </c>
       <c r="C41" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995058</v>
       </c>
       <c r="E41" t="n">
-        <v>1018.957177436856</v>
+        <v>1018.957177436855</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872897</v>
+        <v>676.7913636872886</v>
       </c>
       <c r="G41" t="n">
-        <v>329.4856801922889</v>
+        <v>329.4856801922877</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402803</v>
       </c>
       <c r="I41" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>177.4083093538498</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K41" t="n">
-        <v>423.9151489921529</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L41" t="n">
-        <v>1125.519305035951</v>
+        <v>1569.820972987031</v>
       </c>
       <c r="M41" t="n">
-        <v>1922.795658755841</v>
+        <v>2089.595997452654</v>
       </c>
       <c r="N41" t="n">
-        <v>2718.340779859872</v>
+        <v>2885.141118556685</v>
       </c>
       <c r="O41" t="n">
-        <v>3424.363840884068</v>
+        <v>3214.172000130763</v>
       </c>
       <c r="P41" t="n">
-        <v>3670.683085050103</v>
+        <v>3460.491244296798</v>
       </c>
       <c r="Q41" t="n">
         <v>3807.4858326055</v>
@@ -7445,16 +7445,16 @@
         <v>3415.449390176632</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>653.361187648985</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L42" t="n">
-        <v>900.1263155554491</v>
+        <v>880.6075477764161</v>
       </c>
       <c r="M42" t="n">
-        <v>1207.446448835411</v>
+        <v>1648.975694168878</v>
       </c>
       <c r="N42" t="n">
-        <v>1537.309076499443</v>
+        <v>1978.83832183291</v>
       </c>
       <c r="O42" t="n">
-        <v>1816.84914171814</v>
+        <v>2310.350747328529</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.766701154948</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q42" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R42" t="n">
         <v>2602.506130567962</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.392864302657</v>
+        <v>638.3928643026574</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147915</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001447</v>
       </c>
       <c r="F43" t="n">
         <v>299.8173650422754</v>
@@ -7588,7 +7588,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q43" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R43" t="n">
         <v>1975.198453178347</v>
@@ -7600,7 +7600,7 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V43" t="n">
         <v>1282.960265051241</v>
@@ -7609,10 +7609,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963446</v>
+        <v>903.193726196345</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928556</v>
+        <v>751.221238092856</v>
       </c>
     </row>
     <row r="44">
@@ -7646,25 +7646,25 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
-        <v>344.8139583742028</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K44" t="n">
-        <v>547.3128584977793</v>
+        <v>423.9151489921527</v>
       </c>
       <c r="L44" t="n">
-        <v>1248.917014541577</v>
+        <v>1125.519305035951</v>
       </c>
       <c r="M44" t="n">
-        <v>1601.174970103564</v>
+        <v>1922.795658755841</v>
       </c>
       <c r="N44" t="n">
-        <v>2396.720091207595</v>
+        <v>2718.340779859872</v>
       </c>
       <c r="O44" t="n">
-        <v>3102.74315223179</v>
+        <v>3424.363840884068</v>
       </c>
       <c r="P44" t="n">
-        <v>3460.491244296798</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q44" t="n">
         <v>3807.4858326055</v>
@@ -7673,10 +7673,10 @@
         <v>3807.4858326055</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862514</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813159</v>
       </c>
       <c r="U44" t="n">
         <v>3415.449390176633</v>
@@ -7725,28 +7725,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>242.4709188044723</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K45" t="n">
         <v>653.361187648985</v>
       </c>
       <c r="L45" t="n">
-        <v>900.1263155554491</v>
+        <v>1185.651406307347</v>
       </c>
       <c r="M45" t="n">
-        <v>1207.446448835411</v>
+        <v>1492.971539587309</v>
       </c>
       <c r="N45" t="n">
-        <v>1537.309076499443</v>
+        <v>1822.834167251342</v>
       </c>
       <c r="O45" t="n">
-        <v>1816.84914171814</v>
+        <v>2102.374232470039</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.766701154948</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q45" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R45" t="n">
         <v>2602.506130567962</v>
@@ -7786,7 +7786,7 @@
         <v>538.2767724147911</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424964</v>
+        <v>456.9802240424965</v>
       </c>
       <c r="E46" t="n">
         <v>377.8872215001444</v>
@@ -7798,19 +7798,19 @@
         <v>200.4621344021368</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901211</v>
       </c>
       <c r="I46" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
-        <v>155.9829803443639</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173194</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567929</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M46" t="n">
         <v>1027.79888605232</v>
@@ -7825,7 +7825,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R46" t="n">
         <v>1975.198453178347</v>
@@ -7837,7 +7837,7 @@
         <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V46" t="n">
         <v>1282.960265051241</v>
@@ -7846,7 +7846,7 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963446</v>
+        <v>903.1937261963448</v>
       </c>
       <c r="Y46" t="n">
         <v>751.2212380928556</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>386.2161139338934</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>212.3582274761389</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>108.2245426988757</v>
+        <v>108.2245426988758</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>106.0287138250087</v>
       </c>
       <c r="L6" t="n">
-        <v>213.8920034147084</v>
+        <v>150.219978301341</v>
       </c>
       <c r="M6" t="n">
-        <v>434.089612285691</v>
+        <v>434.0896122856905</v>
       </c>
       <c r="N6" t="n">
-        <v>421.9761166209649</v>
+        <v>421.9761166209644</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>96.35422033900019</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>253.737160350474</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>87.16935584025435</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>261.7930203334325</v>
+        <v>261.7930203334323</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>73.64859338270682</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>157.6539759971086</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>139.7035459660244</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>5.891030169484367</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>44.45246415628947</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>169.2091605087242</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484367</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>44.45246415628912</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>112.5543918171439</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5.891030169484367</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>33.088496217995</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.128537537956695</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>9.760100492533049</v>
       </c>
       <c r="V16" t="n">
-        <v>120.902444419763</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>49.17911248888132</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>101.0594630210982</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,16 +24175,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518776</v>
       </c>
       <c r="U22" t="n">
-        <v>250.8368657465149</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557755</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D25" t="n">
-        <v>130.2143874753601</v>
+        <v>71.19925694756948</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0328771037169</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205253</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.5127428246838</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>92.0181599214197</v>
+        <v>92.01815992141958</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.56326686094039</v>
       </c>
       <c r="S25" t="n">
-        <v>77.73934219560677</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T25" t="n">
-        <v>203.146475515537</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>104.5867010613681</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D28" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800789</v>
+        <v>127.0199624800788</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205253</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246838</v>
+        <v>130.5127428246837</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141968</v>
+        <v>92.01815992141958</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094049</v>
+        <v>80.70224990189941</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092425</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>137.9847185967345</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>127.0199624800788</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.5127428246837</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>92.01815992141958</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.56326686094039</v>
       </c>
       <c r="S31" t="n">
-        <v>5.472383200542652</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155369</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>267.8362668557251</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809757</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937387</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1215860.807005717</v>
+        <v>1215860.807005716</v>
       </c>
     </row>
     <row r="7">
@@ -26332,7 +26332,7 @@
         <v>195514.5298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>198146.7094701149</v>
+        <v>198146.709470115</v>
       </c>
       <c r="J2" t="n">
         <v>198146.7094701149</v>
@@ -26344,7 +26344,7 @@
         <v>205260.4424660711</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660706</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660709</v>
@@ -26366,13 +26366,13 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>72744.75223794799</v>
+        <v>72744.75223794702</v>
       </c>
       <c r="D3" t="n">
-        <v>348321.8962936396</v>
+        <v>348321.8962936405</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428184</v>
+        <v>14720.86843428192</v>
       </c>
       <c r="J3" t="n">
         <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>16913.40047303611</v>
+        <v>16913.40047303593</v>
       </c>
       <c r="L3" t="n">
         <v>123915.625874163</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762896</v>
+        <v>69175.08933762902</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428183</v>
+        <v>14720.86843428192</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>296337.3092211186</v>
+        <v>296337.3092211188</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26427,31 +26427,31 @@
         <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316558</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.42148316558</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="I4" t="n">
-        <v>49616.2956545644</v>
+        <v>49616.29565456441</v>
       </c>
       <c r="J4" t="n">
-        <v>49616.2956545644</v>
+        <v>49616.29565456441</v>
       </c>
       <c r="K4" t="n">
-        <v>49616.29565456441</v>
+        <v>49616.29565456438</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448606</v>
+        <v>65980.20872448602</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766792</v>
+        <v>99837.12979766788</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766785</v>
+        <v>99837.12979766782</v>
       </c>
       <c r="O4" t="n">
         <v>99837.12979766788</v>
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56410.20653049171</v>
+        <v>56410.20653049163</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26482,22 +26482,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921868</v>
       </c>
       <c r="J5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921868</v>
       </c>
       <c r="K5" t="n">
         <v>93534.2868092187</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>81703.90096581174</v>
@@ -26522,46 +26522,46 @@
         <v>-289141.2469344346</v>
       </c>
       <c r="C6" t="n">
-        <v>-220231.8255234874</v>
+        <v>-220231.8255234865</v>
       </c>
       <c r="D6" t="n">
-        <v>-418127.1282834079</v>
+        <v>-418127.1282834089</v>
       </c>
       <c r="E6" t="n">
-        <v>-465194.2540399239</v>
+        <v>-465291.713165896</v>
       </c>
       <c r="F6" t="n">
-        <v>59965.78243697221</v>
+        <v>59868.32331100004</v>
       </c>
       <c r="G6" t="n">
-        <v>59965.78243697224</v>
+        <v>59868.32331100006</v>
       </c>
       <c r="H6" t="n">
-        <v>59965.78243697227</v>
+        <v>59868.32331100009</v>
       </c>
       <c r="I6" t="n">
-        <v>40275.25857204996</v>
+        <v>40204.12124209035</v>
       </c>
       <c r="J6" t="n">
-        <v>-17258.56786480729</v>
+        <v>-17329.70519476683</v>
       </c>
       <c r="K6" t="n">
-        <v>38082.72653329576</v>
+        <v>38011.58920333637</v>
       </c>
       <c r="L6" t="n">
-        <v>-82350.49795260337</v>
+        <v>-82350.49795260331</v>
       </c>
       <c r="M6" t="n">
-        <v>-45455.677635038</v>
+        <v>-45455.67763503778</v>
       </c>
       <c r="N6" t="n">
-        <v>8998.54326830947</v>
+        <v>8998.54326830944</v>
       </c>
       <c r="O6" t="n">
         <v>23719.41170259117</v>
       </c>
       <c r="P6" t="n">
-        <v>23719.41170259121</v>
+        <v>23719.41170259124</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>91.59216845020407</v>
+        <v>91.59216845020333</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>341.8733101690339</v>
+        <v>341.873310169033</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678837</v>
+        <v>49.73080458678824</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285229</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>56.57090773107878</v>
+        <v>56.57090773107804</v>
       </c>
       <c r="D3" t="n">
-        <v>286.1514957668826</v>
+        <v>286.1514957668834</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>65.7167964666785</v>
+        <v>65.71679646667756</v>
       </c>
       <c r="D4" t="n">
-        <v>332.4139625855217</v>
+        <v>332.4139625855226</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27036,13 +27036,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.7167964666785</v>
+        <v>65.71679646667779</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855217</v>
+        <v>332.4139625855223</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968193</v>
+        <v>277.5841853968195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.7167964666785</v>
+        <v>65.71679646667756</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855217</v>
+        <v>332.4139625855226</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>352.9130078711386</v>
       </c>
       <c r="H2" t="n">
-        <v>94.79428962526615</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27427,16 +27427,16 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,22 +27458,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>91.63443774587859</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.7262911905636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>119.9182417169037</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.45345940421694</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>40.86053149444757</v>
       </c>
       <c r="C5" t="n">
-        <v>23.39958160197364</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>12.80973145164995</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>95.66586410830195</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>73.06121762368917</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>335.7038742961063</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>28.77408235754228</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>200.6294905367618</v>
+        <v>200.6294905367619</v>
       </c>
       <c r="T5" t="n">
         <v>221.484011504269</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.1465075933366</v>
       </c>
       <c r="H6" t="n">
-        <v>110.3327465485026</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.92595927923662</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.3706418758996</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9284209250621</v>
       </c>
       <c r="V6" t="n">
-        <v>84.47884021971251</v>
+        <v>231.6314508711612</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>102.9654593083259</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.8258131530567</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>160.7586947903199</v>
       </c>
       <c r="I7" t="n">
         <v>150.4834766775325</v>
       </c>
       <c r="J7" t="n">
-        <v>81.68192939475085</v>
+        <v>81.68192939475095</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.33162581571356</v>
+        <v>72.33162581571368</v>
       </c>
       <c r="R7" t="n">
         <v>169.866918177912</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1683511546706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>91.92565884761405</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>87.33265185072395</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>158.0342054285539</v>
       </c>
       <c r="U10" t="n">
-        <v>24.37936745074319</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="C25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="D25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="E25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="F25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="G25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="H25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="I25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="K25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="L25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="M25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="N25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="O25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="P25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="R25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="S25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="T25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="U25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="V25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="W25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="X25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.4010855428523</v>
+        <v>18.4010855428524</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285231</v>
+        <v>18.4010855428524</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964165</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964193</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964192</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964136</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.1318901296419</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964136</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3682097224128804</v>
+        <v>0.3682097224128774</v>
       </c>
       <c r="H5" t="n">
-        <v>3.770927819660912</v>
+        <v>3.770927819660882</v>
       </c>
       <c r="I5" t="n">
-        <v>14.19540532332259</v>
+        <v>14.19540532332247</v>
       </c>
       <c r="J5" t="n">
-        <v>31.25133992764024</v>
+        <v>31.25133992763999</v>
       </c>
       <c r="K5" t="n">
-        <v>46.83765747737748</v>
+        <v>46.83765747737709</v>
       </c>
       <c r="L5" t="n">
-        <v>58.10625576967067</v>
+        <v>58.10625576967021</v>
       </c>
       <c r="M5" t="n">
-        <v>64.65440542063074</v>
+        <v>64.65440542063021</v>
       </c>
       <c r="N5" t="n">
-        <v>65.70058129443633</v>
+        <v>65.70058129443581</v>
       </c>
       <c r="O5" t="n">
-        <v>62.03919586719325</v>
+        <v>62.03919586719275</v>
       </c>
       <c r="P5" t="n">
-        <v>52.94901834512526</v>
+        <v>52.94901834512483</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.76250766121397</v>
+        <v>39.76250766121365</v>
       </c>
       <c r="R5" t="n">
-        <v>23.12955397551812</v>
+        <v>23.12955397551793</v>
       </c>
       <c r="S5" t="n">
-        <v>8.39057904948352</v>
+        <v>8.390579049483453</v>
       </c>
       <c r="T5" t="n">
-        <v>1.611838059862385</v>
+        <v>1.611838059862372</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02945677779303043</v>
+        <v>0.02945677779303019</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970095698740238</v>
+        <v>0.1970095698740223</v>
       </c>
       <c r="H6" t="n">
-        <v>1.902697687993862</v>
+        <v>1.902697687993847</v>
       </c>
       <c r="I6" t="n">
-        <v>6.783004927680208</v>
+        <v>6.783004927680153</v>
       </c>
       <c r="J6" t="n">
-        <v>18.613083967791</v>
+        <v>18.61308396779085</v>
       </c>
       <c r="K6" t="n">
-        <v>31.8127251493506</v>
+        <v>31.81272514935034</v>
       </c>
       <c r="L6" t="n">
-        <v>42.77613489742786</v>
+        <v>42.77613489742751</v>
       </c>
       <c r="M6" t="n">
-        <v>49.91773180536121</v>
+        <v>49.91773180536081</v>
       </c>
       <c r="N6" t="n">
-        <v>51.23890563140237</v>
+        <v>51.23890563140196</v>
       </c>
       <c r="O6" t="n">
-        <v>46.87358831998321</v>
+        <v>46.87358831998283</v>
       </c>
       <c r="P6" t="n">
-        <v>37.62018707533005</v>
+        <v>37.62018707532975</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.14809877900698</v>
+        <v>25.14809877900677</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2318748734065</v>
+        <v>12.2318748734064</v>
       </c>
       <c r="S6" t="n">
-        <v>3.659366352703906</v>
+        <v>3.659366352703876</v>
       </c>
       <c r="T6" t="n">
-        <v>0.794086818922052</v>
+        <v>0.7940868189220456</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01296115591276473</v>
+        <v>0.01296115591276463</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1651662054020073</v>
+        <v>0.165166205402006</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468477717119666</v>
+        <v>1.468477717119654</v>
       </c>
       <c r="I7" t="n">
-        <v>4.966998249725822</v>
+        <v>4.966998249725782</v>
       </c>
       <c r="J7" t="n">
-        <v>11.67725072192192</v>
+        <v>11.67725072192182</v>
       </c>
       <c r="K7" t="n">
-        <v>19.18931004579685</v>
+        <v>19.18931004579669</v>
       </c>
       <c r="L7" t="n">
-        <v>24.55571021040389</v>
+        <v>24.5557102104037</v>
       </c>
       <c r="M7" t="n">
-        <v>25.89055345224374</v>
+        <v>25.89055345224353</v>
       </c>
       <c r="N7" t="n">
-        <v>25.27493395938174</v>
+        <v>25.27493395938153</v>
       </c>
       <c r="O7" t="n">
-        <v>23.34549237809464</v>
+        <v>23.34549237809446</v>
       </c>
       <c r="P7" t="n">
-        <v>19.97610178789368</v>
+        <v>19.97610178789352</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.83041743598081</v>
+        <v>13.8304174359807</v>
       </c>
       <c r="R7" t="n">
-        <v>7.426473199257527</v>
+        <v>7.426473199257467</v>
       </c>
       <c r="S7" t="n">
-        <v>2.878396506869527</v>
+        <v>2.878396506869503</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7057101503540311</v>
+        <v>0.7057101503540254</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00900906574920041</v>
+        <v>0.009009065749200337</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>263.1686671037983</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>100.6082676511396</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891755</v>
@@ -34796,7 +34796,7 @@
         <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.30205057302772</v>
+        <v>19.30205057302747</v>
       </c>
       <c r="K5" t="n">
-        <v>150.8932190035617</v>
+        <v>150.8932190035613</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0010553501339</v>
+        <v>240.0010553501334</v>
       </c>
       <c r="M5" t="n">
-        <v>283.8217056861905</v>
+        <v>283.8217056861899</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6344421098296</v>
+        <v>273.634442109829</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7411657082519</v>
+        <v>212.7411657082514</v>
       </c>
       <c r="P5" t="n">
-        <v>143.5147307613384</v>
+        <v>143.5147307613379</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.77180844666916</v>
+        <v>29.77180844666884</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158.4365231875702</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>118.113758532262</v>
+        <v>54.44173341889437</v>
       </c>
       <c r="M6" t="n">
-        <v>341.8733101690339</v>
+        <v>341.873310169033</v>
       </c>
       <c r="N6" t="n">
-        <v>341.8733101690339</v>
+        <v>341.873310169033</v>
       </c>
       <c r="O6" t="n">
-        <v>298.1396631522683</v>
+        <v>298.1396631522679</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>222.1085483009367</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.24361242883455</v>
+        <v>95.24361242883435</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.14573547072003</v>
+        <v>52.14573547071983</v>
       </c>
       <c r="M7" t="n">
-        <v>65.47443041408434</v>
+        <v>65.47443041408413</v>
       </c>
       <c r="N7" t="n">
-        <v>69.40710633861033</v>
+        <v>69.40710633861013</v>
       </c>
       <c r="O7" t="n">
-        <v>47.93062029213432</v>
+        <v>47.93062029213413</v>
       </c>
       <c r="P7" t="n">
-        <v>17.25466105278717</v>
+        <v>17.254661052787</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35501,13 +35501,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>536.1008625915821</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35893,7 +35893,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>237.7447944281936</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36136,13 +36136,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841782</v>
+        <v>30.90885570841793</v>
       </c>
       <c r="K25" t="n">
-        <v>170.1035140727628</v>
+        <v>170.103514072763</v>
       </c>
       <c r="L25" t="n">
-        <v>268.6152724227808</v>
+        <v>268.6152724227809</v>
       </c>
       <c r="M25" t="n">
-        <v>292.7109267218248</v>
+        <v>292.7109267218249</v>
       </c>
       <c r="N25" t="n">
-        <v>291.6779633484559</v>
+        <v>291.677963348456</v>
       </c>
       <c r="O25" t="n">
-        <v>254.6384370634551</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P25" t="n">
-        <v>196.7846861546531</v>
+        <v>196.7846861546532</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472705</v>
+        <v>57.62678551472716</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841783</v>
+        <v>30.90885570841793</v>
       </c>
       <c r="K28" t="n">
-        <v>170.1035140727629</v>
+        <v>170.103514072763</v>
       </c>
       <c r="L28" t="n">
-        <v>268.6152724227808</v>
+        <v>268.6152724227809</v>
       </c>
       <c r="M28" t="n">
         <v>292.7109267218249</v>
       </c>
       <c r="N28" t="n">
-        <v>291.6779633484559</v>
+        <v>291.677963348456</v>
       </c>
       <c r="O28" t="n">
-        <v>254.6384370634551</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P28" t="n">
-        <v>196.7846861546531</v>
+        <v>196.7846861546532</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472706</v>
+        <v>57.62678551472716</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>408.1301468599572</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841783</v>
+        <v>30.90885570841793</v>
       </c>
       <c r="K31" t="n">
-        <v>170.1035140727629</v>
+        <v>170.103514072763</v>
       </c>
       <c r="L31" t="n">
-        <v>268.6152724227808</v>
+        <v>268.6152724227809</v>
       </c>
       <c r="M31" t="n">
         <v>292.7109267218249</v>
       </c>
       <c r="N31" t="n">
-        <v>291.6779633484559</v>
+        <v>291.677963348456</v>
       </c>
       <c r="O31" t="n">
-        <v>254.6384370634551</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P31" t="n">
-        <v>196.7846861546531</v>
+        <v>196.7846861546532</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472706</v>
+        <v>57.62678551472716</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>552.8228724938892</v>
+        <v>552.822872493889</v>
       </c>
       <c r="M35" t="n">
-        <v>355.8161167292791</v>
+        <v>355.8161167292792</v>
       </c>
       <c r="N35" t="n">
         <v>366.2340059961277</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>161.661626167781</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>259.9353827665428</v>
       </c>
       <c r="K38" t="n">
-        <v>204.5443435591682</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O38" t="n">
-        <v>472.0579717984263</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2814067694341</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>248.9968077154577</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>525.0252772380034</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P41" t="n">
-        <v>248.8073173394296</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1845934903001</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K44" t="n">
-        <v>204.5443435591682</v>
+        <v>248.9968077154574</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>355.8161167292791</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,10 +38032,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>361.3617091565735</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
